--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offpanelb.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offpanelb.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{454D73D0-F38A-4CD0-9EFD-A02DF9E74A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{251F9BD3-32CF-4351-A7E3-9BDCDDA204B4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdesai\Guthy-Renker, LLC\ecommerce - Documents\Merchandising Data Repo\CrepeErase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{454D73D0-F38A-4CD0-9EFD-A02DF9E74A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CF606FD-C92B-420E-BC60-3DB48B527294}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
@@ -1478,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE0E1DE-A1B0-46DD-BEB2-FABBA9ED7877}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2916,7 +2921,7 @@
       <c r="H87" s="61"/>
       <c r="I87" s="61"/>
     </row>
-    <row r="88" spans="1:9" ht="78.75">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="67" t="s">
         <v>93</v>
       </c>
@@ -2929,7 +2934,7 @@
       <c r="H88" s="61"/>
       <c r="I88" s="61"/>
     </row>
-    <row r="89" spans="1:9" ht="126">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="67" t="s">
         <v>94</v>
       </c>
@@ -2942,7 +2947,7 @@
       <c r="H89" s="61"/>
       <c r="I89" s="61"/>
     </row>
-    <row r="90" spans="1:9" ht="94.5">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="67" t="s">
         <v>144</v>
       </c>
@@ -3098,7 +3103,7 @@
       <c r="H101" s="61"/>
       <c r="I101" s="61"/>
     </row>
-    <row r="102" spans="1:9" ht="63">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="64" t="s">
         <v>112</v>
       </c>
@@ -3111,7 +3116,7 @@
       <c r="H102" s="61"/>
       <c r="I102" s="61"/>
     </row>
-    <row r="103" spans="1:9" ht="47.25">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="67" t="s">
         <v>113</v>
       </c>
@@ -3124,7 +3129,7 @@
       <c r="H103" s="61"/>
       <c r="I103" s="61"/>
     </row>
-    <row r="104" spans="1:9" ht="63">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="67" t="s">
         <v>114</v>
       </c>
@@ -3137,7 +3142,7 @@
       <c r="H104" s="61"/>
       <c r="I104" s="61"/>
     </row>
-    <row r="105" spans="1:9" ht="63">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="67" t="s">
         <v>146</v>
       </c>
@@ -3200,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4532,12 +4537,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4702,23 +4716,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offpanelb.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/deluxe20offpanelb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdesai\Guthy-Renker, LLC\ecommerce - Documents\Merchandising Data Repo\CrepeErase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{454D73D0-F38A-4CD0-9EFD-A02DF9E74A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CF606FD-C92B-420E-BC60-3DB48B527294}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{454D73D0-F38A-4CD0-9EFD-A02DF9E74A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55066BCC-488C-48F8-B6B3-8A07397FDAAA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="173">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -939,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -960,9 +960,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1499,1685 +1496,1685 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="52"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="59"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="59"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>2</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>1</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>1</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <v>59.95</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="76">
         <v>47.96</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="76">
         <v>39.950000000000003</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="78">
         <v>0</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="78">
         <v>0</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" ht="195" customHeight="1">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" ht="195.75" customHeight="1">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="79">
+      <c r="B37" s="78">
         <v>47.96</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="78">
         <v>39.950000000000003</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="79">
+      <c r="B38" s="78">
         <v>0</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="78">
         <v>0</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="75">
         <v>3</v>
       </c>
-      <c r="C39" s="76">
+      <c r="C39" s="75">
         <v>3</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9" ht="27" customHeight="1">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9" ht="174" customHeight="1">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="1:9" ht="24" customHeight="1">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
     </row>
     <row r="48" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="75">
         <v>5</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="75">
         <v>2</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
     </row>
     <row r="51" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <v>3</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="75">
         <v>3</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="77">
+      <c r="B55" s="76">
         <v>59.95</v>
       </c>
-      <c r="C55" s="77">
+      <c r="C55" s="76">
         <v>39.950000000000003</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" spans="1:9" ht="24" customHeight="1">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="77">
+      <c r="B56" s="76">
         <v>3.99</v>
       </c>
-      <c r="C56" s="77">
+      <c r="C56" s="76">
         <v>2.99</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
     </row>
     <row r="57" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:9" ht="189.75" customHeight="1">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75">
         <v>3</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="75">
         <v>3</v>
       </c>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
     </row>
     <row r="64" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
     </row>
     <row r="65" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
     </row>
     <row r="66" spans="1:9" ht="21" customHeight="1">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
     </row>
     <row r="68" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
     </row>
     <row r="70" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
     </row>
     <row r="71" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
     </row>
     <row r="73" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
     </row>
     <row r="75" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
     </row>
     <row r="78" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
     </row>
     <row r="81" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
     </row>
     <row r="84" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A84" s="67" t="s">
+      <c r="A84" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
     </row>
     <row r="85" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1">
-      <c r="A86" s="67" t="s">
+      <c r="A86" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
     </row>
     <row r="87" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="67" t="s">
+      <c r="A88" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="67" t="s">
+      <c r="A89" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="67" t="s">
+      <c r="A91" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A92" s="67" t="s">
+      <c r="A92" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A93" s="67" t="s">
+      <c r="A93" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A95" s="67" t="s">
+      <c r="A95" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1">
-      <c r="A96" s="67" t="s">
+      <c r="A96" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1">
-      <c r="A97" s="67" t="s">
+      <c r="A97" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1">
-      <c r="A98" s="67" t="s">
+      <c r="A98" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="61"/>
-      <c r="I99" s="61"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A100" s="67" t="s">
+      <c r="A100" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="64" t="s">
+      <c r="A102" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="61"/>
-      <c r="I102" s="61"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="67" t="s">
+      <c r="A103" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="67" t="s">
+      <c r="A104" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="67" t="s">
+      <c r="A105" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="74"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="61"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="60"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="B107" s="60"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="61"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3203,24 +3200,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="25"/>
-    <col min="8" max="8" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="59.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="24"/>
+    <col min="8" max="8" width="12.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3245,24 +3242,24 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3277,19 +3274,19 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -3304,25 +3301,25 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -3331,1227 +3328,1133 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="34"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="A15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
+      <c r="A21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
+      <c r="A22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="220.5">
+      <c r="A24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="173.25">
+      <c r="A25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="D26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="220.5">
-      <c r="A27" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="173.25">
-      <c r="A28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75">
-      <c r="A33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>163</v>
-      </c>
+      <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>152</v>
+      <c r="A37" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>154</v>
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="12">
-        <v>3</v>
-      </c>
-      <c r="C39" s="12">
-        <v>3</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+    <row r="39" spans="1:5" ht="173.25">
+      <c r="A39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75">
-      <c r="A40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="173.25">
-      <c r="A42" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5" ht="15.75">
-      <c r="A43" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="11">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" ht="189">
+      <c r="A55" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3</v>
+      </c>
+      <c r="C56" s="11">
+        <v>3</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="88"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75">
+      <c r="A61" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="A62" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75">
+      <c r="A70" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75">
+      <c r="A71" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75">
+      <c r="A72" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75">
+      <c r="A81" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75">
+      <c r="A82" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75">
+      <c r="A84" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75">
+      <c r="A85" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75">
+      <c r="A87" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75">
+      <c r="A88" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75">
+      <c r="A91" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75">
+      <c r="A92" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75">
-      <c r="A48" s="11" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75">
+      <c r="A93" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="11" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75">
+      <c r="A94" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="11" t="s">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75">
+      <c r="A95" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75">
+      <c r="A96" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="12">
-        <v>5</v>
-      </c>
-      <c r="C50" s="12">
-        <v>2</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75">
-      <c r="A51" s="11" t="s">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75">
+      <c r="A97" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75">
-      <c r="A52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75">
-      <c r="A53" s="11" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="12">
-        <v>3</v>
-      </c>
-      <c r="C53" s="12">
-        <v>3</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="11" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="18" t="s">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" s="11" t="s">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" ht="189">
-      <c r="A58" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="12">
-        <v>3</v>
-      </c>
-      <c r="C59" s="12">
-        <v>3</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="89"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75">
-      <c r="A72" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75">
-      <c r="A73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75">
-      <c r="A74" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75">
-      <c r="A81" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75">
-      <c r="A82" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75">
-      <c r="A83" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75">
-      <c r="A84" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75">
-      <c r="A85" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75">
-      <c r="A86" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75">
-      <c r="A87" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75">
-      <c r="A88" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75">
-      <c r="A89" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75">
-      <c r="A90" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75">
-      <c r="A91" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75">
-      <c r="A92" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75">
-      <c r="A93" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75">
-      <c r="A94" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75">
-      <c r="A95" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75">
-      <c r="A96" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75">
-      <c r="A97" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75">
-      <c r="A98" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75">
-      <c r="A99" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75">
-      <c r="A100" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" spans="1:5" ht="15.75">
-      <c r="A102" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
+      <c r="A102" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:5" ht="15.75">
-      <c r="A103" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:5" ht="15.75">
-      <c r="A104" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" s="22"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
-      <c r="A107" s="22" t="s">
+      <c r="A104" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{045040DD-6AA9-4CDE-98F1-A6E8B70A75B1}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{29E152EA-C52A-494C-B53E-77A57265BFAD}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{C8EB5421-3C9F-47CF-8871-885135DB3B5F}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{C9E632F6-1F09-4566-BECC-3A436482C1A2}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{A9E7EB64-DFAF-4629-A082-4E653B22B483}"/>
-    <hyperlink ref="A2" r:id="rId6" xr:uid="{A00FE637-81A9-4C1D-9929-7122E0DF7BBC}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{B226CF74-05C3-4CE7-ACD7-6B1A843E58D1}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{8A969105-7504-4DD9-8B17-1397E4B4C862}"/>
-    <hyperlink ref="B2" r:id="rId9" xr:uid="{548D9003-04AD-4333-B6D0-06A6D4677457}"/>
-    <hyperlink ref="A8" r:id="rId10" xr:uid="{B36D73FE-C41E-41FD-A192-C7350C0D7C6D}"/>
-    <hyperlink ref="B8" r:id="rId11" xr:uid="{E37BB31B-7828-49EE-8340-EEF99F6935F3}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{C8EB5421-3C9F-47CF-8871-885135DB3B5F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A9E7EB64-DFAF-4629-A082-4E653B22B483}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{A00FE637-81A9-4C1D-9929-7122E0DF7BBC}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8A969105-7504-4DD9-8B17-1397E4B4C862}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{548D9003-04AD-4333-B6D0-06A6D4677457}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{B36D73FE-C41E-41FD-A192-C7350C0D7C6D}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{E37BB31B-7828-49EE-8340-EEF99F6935F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4716,14 +4619,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>